--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2697637.718895778</v>
+        <v>2695431.625489341</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604728</v>
+        <v>7094780.682604729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>390.7485785637178</v>
+        <v>414.0301000117425</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208642</v>
+        <v>161.4125322208644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866676</v>
+        <v>69.92680236866707</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776874</v>
+        <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930304</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
         <v>251.2438419075651</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>16.0248819628182</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>143.1366597264358</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6591799828218</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154847</v>
+        <v>65.95263903154856</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015517</v>
       </c>
       <c r="S3" t="n">
-        <v>149.936841745835</v>
+        <v>159.0353604252219</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8965846405547</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.625388236511</v>
       </c>
       <c r="S4" t="n">
-        <v>214.0680412192119</v>
+        <v>173.1921620440642</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>110.7495090613651</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>105.0839683962665</v>
+        <v>174.140410707719</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554002</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>74.24596078692618</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>194.9730522231944</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365809</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>74.75769145492335</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U13" t="n">
-        <v>283.8758740715552</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634817</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15.11174121957023</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>165.8124928026228</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873217</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492269</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U19" t="n">
-        <v>270.0697021486467</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785985</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.5103646250808</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247653</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>63.13355668550031</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.380068175847995</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744748</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>63.13355668550143</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>203.4068132192022</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>192.7585411682373</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492329</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3566142959208</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774346</v>
       </c>
       <c r="C35" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849616</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1876253346372</v>
+        <v>319.187625334637</v>
       </c>
       <c r="E35" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862158</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556655</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674075</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012745</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880183</v>
+        <v>6.081513486880041</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550212992</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535742</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V35" t="n">
-        <v>292.2568421840891</v>
+        <v>292.256842184089</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313671</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924231</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700076</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958913</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125821</v>
+        <v>131.7514048125819</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321664</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605232</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368854</v>
+        <v>76.02990583396425</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729824</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379232</v>
+        <v>60.85700412379218</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>53.43673638400139</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>154.2736090453959</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901232</v>
       </c>
       <c r="U37" t="n">
-        <v>184.7410508447832</v>
+        <v>250.7164219195669</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377822</v>
+        <v>216.642227037782</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505452</v>
+        <v>251.027582050545</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029912</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660488</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880127</v>
+        <v>6.081513486880134</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>168.4225538535743</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V38" t="n">
         <v>292.2568421840891</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247694</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,10 +3661,10 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>28.84832416907922</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321665</v>
+        <v>10.21697608866392</v>
       </c>
       <c r="E40" t="n">
         <v>110.9385463605233</v>
@@ -3676,7 +3676,7 @@
         <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400149</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
@@ -3749,7 +3749,7 @@
         <v>346.4349537862159</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556654</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G41" t="n">
         <v>375.4263093674076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213004</v>
+        <v>73.69234550213001</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535743</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247694</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,16 +3904,16 @@
         <v>113.1200567321665</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>8.035465717020704</v>
       </c>
       <c r="F43" t="n">
-        <v>8.0354657170206</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400152</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S43" t="n">
         <v>154.2736090453961</v>
@@ -3986,7 +3986,7 @@
         <v>346.4349537862159</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556654</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G44" t="n">
         <v>375.4263093674076</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880141</v>
+        <v>6.081513486880098</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213004</v>
+        <v>73.69234550212997</v>
       </c>
       <c r="T44" t="n">
         <v>168.4225538535743</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321665</v>
+        <v>9.550942980053662</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F46" t="n">
-        <v>78.9298664058104</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379229</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400151</v>
+        <v>53.43673638400149</v>
       </c>
       <c r="S46" t="n">
-        <v>154.2736090453961</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T46" t="n">
         <v>184.0535329901234</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>612.941751346222</v>
+        <v>966.1972308736694</v>
       </c>
       <c r="C2" t="n">
-        <v>612.941751346222</v>
+        <v>966.1972308736694</v>
       </c>
       <c r="D2" t="n">
-        <v>612.941751346222</v>
+        <v>966.1972308736694</v>
       </c>
       <c r="E2" t="n">
-        <v>612.941751346222</v>
+        <v>966.1972308736694</v>
       </c>
       <c r="F2" t="n">
-        <v>605.9962505970185</v>
+        <v>959.2517301244659</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942732</v>
+        <v>541.0395078903825</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942732</v>
+        <v>211.3007166942733</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244787</v>
+        <v>143.361340524478</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293509</v>
+        <v>406.6417666293496</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024647</v>
+        <v>785.5410436024628</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782772</v>
+        <v>1223.746040782769</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400863</v>
+        <v>1654.409655400859</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671747</v>
+        <v>2015.885456671743</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110681</v>
+        <v>2286.722307110675</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.88774275082</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045096</v>
+        <v>2342.254609045089</v>
       </c>
       <c r="S2" t="n">
-        <v>2160.416384320159</v>
+        <v>2160.416384320152</v>
       </c>
       <c r="T2" t="n">
-        <v>1940.694284428209</v>
+        <v>1940.694284428202</v>
       </c>
       <c r="U2" t="n">
-        <v>1686.912625935719</v>
+        <v>1686.912625935712</v>
       </c>
       <c r="V2" t="n">
-        <v>1355.849738592148</v>
+        <v>1355.849738592141</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.081083322034</v>
+        <v>1339.662989134749</v>
       </c>
       <c r="X2" t="n">
-        <v>1003.081083322034</v>
+        <v>966.1972308736694</v>
       </c>
       <c r="Y2" t="n">
-        <v>612.941751346222</v>
+        <v>966.1972308736694</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8055048397986</v>
+        <v>692.9710606982806</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3524755586716</v>
+        <v>692.9710606982806</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4180658974203</v>
+        <v>544.0366510370293</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1806108919648</v>
+        <v>399.4541664648719</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6460529188497</v>
+        <v>252.9196084917569</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6030265867035</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="H3" t="n">
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501639</v>
+        <v>111.2074192719582</v>
       </c>
       <c r="K3" t="n">
-        <v>149.6153884757289</v>
+        <v>345.4192653503517</v>
       </c>
       <c r="L3" t="n">
-        <v>525.9465153519725</v>
+        <v>525.9465153519697</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664344</v>
+        <v>1017.08641166434</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987188</v>
+        <v>1536.932332987184</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602213</v>
+        <v>1946.074112602208</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642323</v>
+        <v>2257.443393642317</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.88774275082</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="R3" t="n">
-        <v>2412.88774275082</v>
+        <v>2354.422089841566</v>
       </c>
       <c r="S3" t="n">
-        <v>2261.436387451996</v>
+        <v>2193.780311634271</v>
       </c>
       <c r="T3" t="n">
-        <v>2062.022105790298</v>
+        <v>1994.366029972572</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.022105790298</v>
+        <v>1766.18766164878</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.869997558555</v>
+        <v>1531.035553417037</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.632640830353</v>
+        <v>1276.798196688835</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.78114062482</v>
+        <v>1068.946696483303</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.020841859867</v>
+        <v>861.1863977183486</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="C4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="D4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="E4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461052</v>
+        <v>91.87143294461015</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384351</v>
+        <v>203.2083598384344</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534298</v>
+        <v>330.9866617534287</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692866</v>
+        <v>461.1612976692852</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984541</v>
+        <v>565.3823477984524</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978498</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978498</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978498</v>
+        <v>477.8838208831902</v>
       </c>
       <c r="S4" t="n">
-        <v>414.8104340319791</v>
+        <v>302.9422430609031</v>
       </c>
       <c r="T4" t="n">
-        <v>414.8104340319791</v>
+        <v>302.9422430609031</v>
       </c>
       <c r="U4" t="n">
-        <v>414.8104340319791</v>
+        <v>302.9422430609031</v>
       </c>
       <c r="V4" t="n">
-        <v>160.1259458260922</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="W4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="X4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,22 +4562,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.974978926224</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
         <v>505.8730812692495</v>
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,22 +4671,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>135.884402556362</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9389018071586</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2445.177924555589</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2114.115037212019</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1761.346381941905</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1387.880623680825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5036,40 +5036,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604875</v>
@@ -5109,22 +5109,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.2638710736757</v>
+        <v>171.073854099832</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5203,7 +5203,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1256.147659358071</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1001.463171152184</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W13" t="n">
-        <v>712.0460011152231</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X13" t="n">
-        <v>484.0564502172058</v>
+        <v>391.8664332433622</v>
       </c>
       <c r="Y13" t="n">
-        <v>263.2638710736757</v>
+        <v>171.0738540998321</v>
       </c>
     </row>
     <row r="14">
@@ -5267,61 +5267,61 @@
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3629.948228594054</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278.5282561439485</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>278.5282561439485</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D16" t="n">
-        <v>278.5282561439485</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E16" t="n">
-        <v>278.5282561439485</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1507.339758221762</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258583</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V16" t="n">
-        <v>1198.376021052696</v>
+        <v>963.5524031415191</v>
       </c>
       <c r="W16" t="n">
-        <v>908.9588510157356</v>
+        <v>674.1352331045584</v>
       </c>
       <c r="X16" t="n">
-        <v>680.9693001177183</v>
+        <v>446.145682206541</v>
       </c>
       <c r="Y16" t="n">
-        <v>460.1767209741881</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2265.590483597802</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>2812.369300656584</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986039</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5583,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
         <v>140.6836668953299</v>
@@ -5677,7 +5677,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783397</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413789</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433616</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998315</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2504.619866888351</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N20" t="n">
-        <v>3051.398683947134</v>
+        <v>2920.758180993046</v>
       </c>
       <c r="O20" t="n">
-        <v>3931.363334276588</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4326.137700633766</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5820,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,7 +5926,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
@@ -5938,22 +5938,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357143</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413795</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433622</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>932.5990189467745</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L23" t="n">
-        <v>1797.117834600129</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2330.649739272054</v>
+        <v>1941.0059087664</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330836</v>
+        <v>2920.758180993046</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.722831322501</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604875</v>
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142067</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282341</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.4972173763014</v>
+        <v>307.2453974100808</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>307.2453974100808</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>307.2453974100808</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>159.3323038276876</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1949.898952795766</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1949.898952795766</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1728.132337365293</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U25" t="n">
-        <v>1439.029470490936</v>
+        <v>1253.788099626698</v>
       </c>
       <c r="V25" t="n">
-        <v>1184.344982285049</v>
+        <v>999.1036114208114</v>
       </c>
       <c r="W25" t="n">
-        <v>894.9278122480885</v>
+        <v>709.6864413838507</v>
       </c>
       <c r="X25" t="n">
-        <v>666.9382613500711</v>
+        <v>709.6864413838507</v>
       </c>
       <c r="Y25" t="n">
-        <v>446.145682206541</v>
+        <v>488.8938622403206</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6230,31 +6230,31 @@
         <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1682.725100522033</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996754</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6300,31 +6300,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839437</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839437</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6400,7 +6400,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6540,7 +6540,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193594</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839437</v>
+        <v>877.1197344942217</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839437</v>
+        <v>708.1835515663148</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839437</v>
+        <v>558.066912153979</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839437</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6625,19 +6625,19 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O31" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
@@ -6649,22 +6649,22 @@
         <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1348.185369361422</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6856,13 +6856,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6874,7 +6874,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
         <v>1956.343466104703</v>
@@ -6889,19 +6889,19 @@
         <v>1453.060509258583</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V34" t="n">
-        <v>909.27315417834</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413794</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X34" t="n">
-        <v>391.8664332433621</v>
+        <v>742.942068898644</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998319</v>
+        <v>742.942068898644</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010018</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914097</v>
       </c>
       <c r="D35" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E35" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398084</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529687</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571337</v>
+        <v>90.72827659571317</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J35" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K35" t="n">
-        <v>774.6894873488975</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L35" t="n">
-        <v>1225.723700597306</v>
+        <v>1127.292264772046</v>
       </c>
       <c r="M35" t="n">
-        <v>1759.25560526923</v>
+        <v>1660.82416944397</v>
       </c>
       <c r="N35" t="n">
-        <v>2739.007877495877</v>
+        <v>2640.576441670617</v>
       </c>
       <c r="O35" t="n">
-        <v>3251.937792886417</v>
+        <v>3143.548912549953</v>
       </c>
       <c r="P35" t="n">
-        <v>3646.712159243595</v>
+        <v>3856.903999996899</v>
       </c>
       <c r="Q35" t="n">
-        <v>4105.190361752583</v>
+        <v>4105.190361752581</v>
       </c>
       <c r="R35" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355222</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583935</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702262</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203182</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.906027777559</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.29422536097</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.008849229649</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J36" t="n">
         <v>178.26260317029</v>
@@ -7020,22 +7020,22 @@
         <v>416.5268021506371</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633024</v>
+        <v>783.2249624633034</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.501287685618</v>
+        <v>1230.501287685619</v>
       </c>
       <c r="N36" t="n">
-        <v>1704.024331240073</v>
+        <v>1704.024331240074</v>
       </c>
       <c r="O36" t="n">
-        <v>2114.985610658127</v>
+        <v>2114.985610658128</v>
       </c>
       <c r="P36" t="n">
-        <v>2425.48520213423</v>
+        <v>2425.485202134231</v>
       </c>
       <c r="Q36" t="n">
-        <v>2583.12675978083</v>
+        <v>2583.126759780831</v>
       </c>
       <c r="R36" t="n">
         <v>2582.982406373346</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>858.7092067778619</v>
+        <v>582.2589880867718</v>
       </c>
       <c r="C37" t="n">
-        <v>725.6269796944457</v>
+        <v>449.1767610033556</v>
       </c>
       <c r="D37" t="n">
-        <v>611.3642961266006</v>
+        <v>334.9140774355108</v>
       </c>
       <c r="E37" t="n">
-        <v>499.3051583886982</v>
+        <v>222.8549396976085</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352785</v>
+        <v>146.0570550168366</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544882</v>
+        <v>146.0570550168366</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168367</v>
+        <v>146.0570550168366</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935367</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7111,34 +7111,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R37" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S37" t="n">
-        <v>2226.491462321464</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T37" t="n">
-        <v>2040.578802735481</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U37" t="n">
-        <v>1853.971680670043</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V37" t="n">
-        <v>1635.141148308647</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W37" t="n">
-        <v>1381.577934116177</v>
+        <v>1105.127715425087</v>
       </c>
       <c r="X37" t="n">
-        <v>1189.44233906265</v>
+        <v>912.9921203715601</v>
       </c>
       <c r="Y37" t="n">
-        <v>1004.503715763611</v>
+        <v>728.0534970725206</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E38" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529682</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424554</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571328</v>
+        <v>90.7282765957133</v>
       </c>
       <c r="I38" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J38" t="n">
-        <v>273.4644646386982</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K38" t="n">
-        <v>928.1877967739977</v>
+        <v>928.1877967739975</v>
       </c>
       <c r="L38" t="n">
-        <v>1379.222010022406</v>
+        <v>1792.706612427352</v>
       </c>
       <c r="M38" t="n">
-        <v>1912.753914694331</v>
+        <v>2326.238517099276</v>
       </c>
       <c r="N38" t="n">
-        <v>2640.576441670617</v>
+        <v>2873.017334158058</v>
       </c>
       <c r="O38" t="n">
-        <v>3143.548912549954</v>
+        <v>3462.129633639722</v>
       </c>
       <c r="P38" t="n">
         <v>3856.9039999969</v>
@@ -7205,13 +7205,13 @@
         <v>3984.706179583936</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X38" t="n">
         <v>2817.294225360971</v>
@@ -7227,73 +7227,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>959.6170717285981</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C39" t="n">
-        <v>785.1640424474712</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D39" t="n">
-        <v>636.22963278622</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E39" t="n">
-        <v>476.9921777807645</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F39" t="n">
-        <v>330.4576198076495</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G39" t="n">
-        <v>194.0945196402681</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H39" t="n">
-        <v>103.5926252781356</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I39" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J39" t="n">
-        <v>178.2626031702903</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K39" t="n">
-        <v>416.5268021506374</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L39" t="n">
-        <v>783.2249624633027</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M39" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N39" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O39" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P39" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q39" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R39" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S39" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T39" t="n">
-        <v>2260.901519544682</v>
+        <v>2260.901519544681</v>
       </c>
       <c r="U39" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V39" t="n">
-        <v>1797.681564447355</v>
+        <v>1797.681564447354</v>
       </c>
       <c r="W39" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X39" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y39" t="n">
         <v>1127.832408748666</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867702</v>
+        <v>582.2589880867704</v>
       </c>
       <c r="C40" t="n">
-        <v>553.1192667038619</v>
+        <v>449.1767610033542</v>
       </c>
       <c r="D40" t="n">
         <v>438.8565831360169</v>
@@ -7351,13 +7351,13 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
         <v>1830.770373008817</v>
@@ -7372,10 +7372,10 @@
         <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715585</v>
+        <v>912.9921203715587</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725191</v>
+        <v>728.0534970725193</v>
       </c>
     </row>
     <row r="41">
@@ -7412,25 +7412,25 @@
         <v>273.4644646386981</v>
       </c>
       <c r="K41" t="n">
-        <v>695.7469042865564</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L41" t="n">
-        <v>1560.265719939911</v>
+        <v>1471.802653981899</v>
       </c>
       <c r="M41" t="n">
-        <v>2093.797624611835</v>
+        <v>2005.334558653823</v>
       </c>
       <c r="N41" t="n">
-        <v>2640.576441670617</v>
+        <v>2985.08683088047</v>
       </c>
       <c r="O41" t="n">
-        <v>3143.548912549954</v>
+        <v>3488.059301759807</v>
       </c>
       <c r="P41" t="n">
-        <v>3856.9039999969</v>
+        <v>3882.833668116985</v>
       </c>
       <c r="Q41" t="n">
-        <v>4105.190361752582</v>
+        <v>4131.120029872667</v>
       </c>
       <c r="R41" t="n">
         <v>4229.266683983637</v>
@@ -7464,73 +7464,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C42" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H42" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I42" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J42" t="n">
-        <v>178.2626031702911</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K42" t="n">
-        <v>416.5268021506382</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633034</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M42" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N42" t="n">
-        <v>1704.024331240074</v>
+        <v>1704.024331240073</v>
       </c>
       <c r="O42" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P42" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q42" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R42" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T42" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U42" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V42" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W42" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X42" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y42" t="n">
         <v>1127.832408748666</v>
@@ -7549,13 +7549,13 @@
         <v>449.1767610033542</v>
       </c>
       <c r="D43" t="n">
-        <v>334.9140774355091</v>
+        <v>334.9140774355092</v>
       </c>
       <c r="E43" t="n">
-        <v>334.9140774355091</v>
+        <v>326.7974453981145</v>
       </c>
       <c r="F43" t="n">
-        <v>326.7974453981146</v>
+        <v>326.7974453981145</v>
       </c>
       <c r="G43" t="n">
         <v>194.9485646173242</v>
@@ -7567,13 +7567,13 @@
         <v>84.58533367967276</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497939</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L43" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7606,10 +7606,10 @@
         <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425085</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715587</v>
+        <v>912.9921203715589</v>
       </c>
       <c r="Y43" t="n">
         <v>728.0534970725193</v>
@@ -7634,40 +7634,40 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424551</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571331</v>
+        <v>90.72827659571325</v>
       </c>
       <c r="I44" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J44" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K44" t="n">
-        <v>1050.820048331152</v>
+        <v>849.706187534352</v>
       </c>
       <c r="L44" t="n">
-        <v>1501.854261579561</v>
+        <v>1300.740400782761</v>
       </c>
       <c r="M44" t="n">
-        <v>2035.386166251485</v>
+        <v>1834.272305454685</v>
       </c>
       <c r="N44" t="n">
-        <v>2582.164983310267</v>
+        <v>2814.024577681332</v>
       </c>
       <c r="O44" t="n">
-        <v>3462.129633639722</v>
+        <v>3316.997048560669</v>
       </c>
       <c r="P44" t="n">
-        <v>3856.9039999969</v>
+        <v>3711.771414917847</v>
       </c>
       <c r="Q44" t="n">
-        <v>4105.190361752582</v>
+        <v>4170.249617426835</v>
       </c>
       <c r="R44" t="n">
         <v>4229.266683983637</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285977</v>
       </c>
       <c r="C45" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474707</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862196</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807642</v>
+        <v>476.992177780764</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076491</v>
       </c>
       <c r="G45" t="n">
         <v>194.0945196402673</v>
@@ -7725,19 +7725,19 @@
         <v>84.58533367967276</v>
       </c>
       <c r="J45" t="n">
-        <v>178.26260317029</v>
+        <v>178.2626031702903</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506371</v>
+        <v>416.5268021506374</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633034</v>
+        <v>783.2249624633027</v>
       </c>
       <c r="M45" t="n">
         <v>1230.501287685619</v>
       </c>
       <c r="N45" t="n">
-        <v>1704.024331240074</v>
+        <v>1704.024331240073</v>
       </c>
       <c r="O45" t="n">
         <v>2114.985610658128</v>
@@ -7764,7 +7764,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X45" t="n">
         <v>1335.59270751362</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.2589880867703</v>
+        <v>582.2589880867705</v>
       </c>
       <c r="C46" t="n">
-        <v>582.2589880867703</v>
+        <v>449.1767610033543</v>
       </c>
       <c r="D46" t="n">
-        <v>467.9963045189253</v>
+        <v>439.529343851785</v>
       </c>
       <c r="E46" t="n">
-        <v>467.9963045189253</v>
+        <v>327.4702061138826</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352784</v>
+        <v>216.434214460463</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544881</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I46" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7825,13 +7825,13 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T46" t="n">
         <v>1830.770373008817</v>
@@ -7849,7 +7849,7 @@
         <v>912.9921203715588</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.0534970725192</v>
+        <v>728.0534970725195</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733592</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>130.2690628129004</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>173.0586514907066</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8936,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>172.4995987156022</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>82.70159106555866</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>192.1853085771361</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.35488666587625</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>317.5146261106144</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>172.4995987156036</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.201528428093297e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>295.4822118493993</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>46.30618790179062</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>132.9990175570131</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>426.9983436221934</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>69.67092241928532</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>10.05802475879193</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,19 +10826,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>182.8724342601053</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>87.00992788113831</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>5.009326287108706e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>89.35663228082012</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>39.52483591330083</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.009326287108706e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>278.919758567934</v>
+        <v>244.8710598038458</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370449</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.33596413405769</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>130.309306803361</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>53.73645647354644</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270146</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>16.14213605696621</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270144</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>82.28749133743099</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.55208449419933</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,7 +24649,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696711</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>162.5760987035357</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24889,22 +24889,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.14213605696699</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>59.37910215559074</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>61.35304109311639</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>33.89572590292106</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.5303919729823</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.2595986282748</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400156</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>65.97537107478392</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>102.9030806435028</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>102.9030806435026</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605233</v>
+        <v>102.9030806435026</v>
       </c>
       <c r="F43" t="n">
-        <v>101.8901660198648</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379229</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>131.751404812582</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>103.5691137521128</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>30.99576533107502</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379224</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782224.3205084839</v>
+        <v>782224.3205084838</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782224.3205084838</v>
+        <v>782224.3205084837</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782224.3205084838</v>
+        <v>782224.3205084839</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792870.1637148942</v>
+        <v>792870.1637148943</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>635330.8590191731</v>
       </c>
       <c r="F2" t="n">
-        <v>635330.8590191732</v>
+        <v>635330.8590191731</v>
       </c>
       <c r="G2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.859019173</v>
       </c>
       <c r="H2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191731</v>
       </c>
       <c r="I2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="J2" t="n">
-        <v>635330.8590191726</v>
+        <v>635330.8590191731</v>
       </c>
       <c r="K2" t="n">
         <v>635330.859019173</v>
       </c>
       <c r="L2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191734</v>
       </c>
       <c r="M2" t="n">
+        <v>651578.6501345466</v>
+      </c>
+      <c r="N2" t="n">
         <v>651578.6501345462</v>
-      </c>
-      <c r="N2" t="n">
-        <v>651578.6501345467</v>
       </c>
       <c r="O2" t="n">
         <v>651578.6501345464</v>
       </c>
       <c r="P2" t="n">
-        <v>651578.6501345464</v>
+        <v>651578.6501345469</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394287</v>
+        <v>507203.142839427</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217417852</v>
+        <v>78665.28217418003</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410737</v>
+        <v>157829.4001410735</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022124</v>
+        <v>18289.94367022152</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.791188175</v>
+        <v>123848.7911881751</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547193</v>
+        <v>232017.7717547198</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26427,31 +26427,31 @@
         <v>28561.83935289575</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.8393528957</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.8393528957</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289577</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501859</v>
+        <v>55718.3086850187</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501859</v>
+        <v>55718.30868501862</v>
       </c>
       <c r="O4" t="n">
         <v>55718.30868501862</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133446</v>
+        <v>77204.68871133434</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.04982123677</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.04982123677</v>
       </c>
       <c r="O5" t="n">
         <v>91026.04982123677</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.04982123678</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-159592.1874140557</v>
+        <v>-159592.1874140544</v>
       </c>
       <c r="C6" t="n">
-        <v>285386.6401908052</v>
+        <v>285386.6401908038</v>
       </c>
       <c r="D6" t="n">
-        <v>364051.9223649838</v>
+        <v>364051.9223649839</v>
       </c>
       <c r="E6" t="n">
-        <v>-216991.9125808429</v>
+        <v>-217059.1080710689</v>
       </c>
       <c r="F6" t="n">
-        <v>510385.5014125638</v>
+        <v>510318.3059223379</v>
       </c>
       <c r="G6" t="n">
-        <v>510385.5014125634</v>
+        <v>510318.3059223377</v>
       </c>
       <c r="H6" t="n">
-        <v>510385.5014125635</v>
+        <v>510318.3059223379</v>
       </c>
       <c r="I6" t="n">
-        <v>510385.5014125633</v>
+        <v>510318.3059223377</v>
       </c>
       <c r="J6" t="n">
-        <v>352556.1012714895</v>
+        <v>352488.9057812643</v>
       </c>
       <c r="K6" t="n">
-        <v>492095.5577423424</v>
+        <v>492028.3622521163</v>
       </c>
       <c r="L6" t="n">
-        <v>510385.5014125635</v>
+        <v>510318.3059223383</v>
       </c>
       <c r="M6" t="n">
-        <v>380985.5004401159</v>
+        <v>380969.0792971258</v>
       </c>
       <c r="N6" t="n">
-        <v>504834.2916282914</v>
+        <v>504817.8704853008</v>
       </c>
       <c r="O6" t="n">
-        <v>504834.2916282911</v>
+        <v>504817.8704853008</v>
       </c>
       <c r="P6" t="n">
-        <v>504834.2916282911</v>
+        <v>504817.8704853014</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688994</v>
+        <v>316.5685789688981</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877049</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,7 +26820,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
       <c r="N4" t="n">
         <v>1057.316670995909</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688994</v>
+        <v>316.5685789688981</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818726</v>
+        <v>61.17508524818845</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877049</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685073</v>
+        <v>71.06533706685207</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.225657850375</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877049</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685073</v>
+        <v>71.06533706685184</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.029398241354</v>
+        <v>383.0293982413539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877049</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685073</v>
+        <v>71.06533706685207</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>23.28152144802465</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841481</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>333.2160867545948</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>14.50842072896518</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.880996380155</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.098518679386871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8965846405547</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.2831165792399</v>
+        <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255589</v>
+        <v>52.99928112255605</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739058</v>
+        <v>38.36018782739077</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6253882365109</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>40.87587917514779</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.7734892752259</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.1539702597871</v>
+        <v>212.0975279483346</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>339.5382092338688</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>56.25111528509493</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724711</v>
+        <v>96.2516047562942</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28579,10 +28579,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-8.878873722601852e-13</v>
       </c>
       <c r="I17" t="n">
-        <v>-3.765876499528531e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="C35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="D35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="E35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="F35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="G35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="H35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="I35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="T35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="U35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="V35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="W35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="X35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="C37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="D37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="E37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="F37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="G37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="H37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="I37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="J37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="K37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="L37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="M37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="N37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="O37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="P37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="R37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="S37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="T37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="U37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="V37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="W37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="X37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604594</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604601</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604601</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392559</v>
+        <v>1.272637503392554</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161905</v>
+        <v>13.033398831619</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954169</v>
+        <v>49.0633573495415</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035643</v>
+        <v>108.0135173035639</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221714</v>
+        <v>161.8842628221708</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166215</v>
+        <v>200.8317428166207</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175789</v>
+        <v>223.464010017578</v>
       </c>
       <c r="N2" t="n">
-        <v>227.079891324093</v>
+        <v>227.0798913240921</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497332</v>
+        <v>214.4251021497324</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847294</v>
+        <v>183.0068637847287</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944833</v>
+        <v>137.4305331944828</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248293</v>
+        <v>79.94231557248261</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855798</v>
+        <v>29.00022710855786</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100931</v>
+        <v>5.570970671100909</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714047</v>
+        <v>0.1018110002714043</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859345</v>
+        <v>0.6809210943859318</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674684</v>
+        <v>6.576264253674658</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986661</v>
+        <v>23.44399381986652</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933078</v>
+        <v>64.33211093933052</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631884</v>
+        <v>109.953824263188</v>
       </c>
       <c r="L3" t="n">
-        <v>147.84648586656</v>
+        <v>147.8464858665595</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380501</v>
+        <v>172.5298755380495</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648751</v>
+        <v>177.0962279648744</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313763</v>
+        <v>162.0084500313756</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674334</v>
+        <v>130.0260640674329</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915895</v>
+        <v>86.9189803991586</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248813</v>
+        <v>42.27683777248796</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861592</v>
+        <v>12.64781067861587</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739796</v>
+        <v>2.744589849739786</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012729</v>
+        <v>0.04479744042012711</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.57086137191113</v>
+        <v>0.5708613719111277</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173504</v>
+        <v>5.075476561173485</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801835</v>
+        <v>17.16735834801828</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411688</v>
+        <v>40.35989899411673</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840217</v>
+        <v>66.32371211840191</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667837</v>
+        <v>84.87151705667803</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148738</v>
+        <v>89.48511487148703</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890961</v>
+        <v>87.35735884890927</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522047</v>
+        <v>80.68866009522016</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823336</v>
+        <v>69.04308810823309</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.8018554243038</v>
+        <v>47.80185542430362</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065862</v>
+        <v>25.66800314065852</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760325</v>
+        <v>9.948556817760286</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711191</v>
+        <v>2.439134952711181</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0311378930133344</v>
+        <v>0.03113789301333427</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33260,10 +33260,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33500,13 +33500,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138806</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138805</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895181</v>
+        <v>96.06422794895138</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483556</v>
+        <v>265.9398243483549</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970847</v>
+        <v>382.7265423970839</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831386</v>
+        <v>442.6313102831377</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394863</v>
+        <v>435.0137521394854</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907919</v>
+        <v>365.127071990791</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009425</v>
+        <v>273.5725762009418</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799385</v>
+        <v>127.439833979938</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>63.58551961307266</v>
       </c>
       <c r="K3" t="n">
-        <v>102.3814481017298</v>
+        <v>236.5776223014076</v>
       </c>
       <c r="L3" t="n">
-        <v>380.132451390145</v>
+        <v>182.3507575773919</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660317</v>
+        <v>496.100905366031</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250954</v>
+        <v>525.0968902250946</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636613</v>
+        <v>413.2745248636607</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930403</v>
+        <v>314.5144252930398</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489865</v>
+        <v>157.0144940489862</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251932</v>
+        <v>44.05422029251906</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169945</v>
+        <v>112.4615423169942</v>
       </c>
       <c r="M4" t="n">
-        <v>129.068991833328</v>
+        <v>129.0689918333276</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281382</v>
+        <v>131.4895312281379</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092601</v>
+        <v>105.2737880092598</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312685</v>
+        <v>66.32164737312658</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>648.4398196822187</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35583,10 +35583,10 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789364</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>571.2615849349741</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>621.6227068957854</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
@@ -36051,7 +36051,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789361</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>744.4871439900476</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.1491914695957</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>654.7059126660149</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>711.4207145458302</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306615</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>751.0723262417313</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36607,13 +36607,13 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>554.3591887900096</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36674,7 +36674,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>588.5891319493451</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908542</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>965.9194594524199</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>525.2610368116173</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
@@ -37318,13 +37318,13 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>518.1110256470109</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340064</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911199</v>
+        <v>81.07383289911213</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303655</v>
       </c>
       <c r="L37" t="n">
-        <v>355.2527884562439</v>
+        <v>355.252788456244</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535858</v>
+        <v>380.352362453586</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086857</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239396</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>735.1742696730167</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>595.0629287693573</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911205</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K40" t="n">
         <v>241.5430758303654</v>
@@ -37707,7 +37707,7 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
         <v>380.3523624535859</v>
@@ -37716,7 +37716,7 @@
         <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
         <v>113.8896548239395</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>426.5479188362205</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427824</v>
@@ -37789,19 +37789,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>99.13803445552556</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359781</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911202</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K43" t="n">
         <v>241.5430758303654</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>616.1110451233344</v>
+        <v>582.0623463592462</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340064</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911202</v>
+        <v>81.07383289911208</v>
       </c>
       <c r="K46" t="n">
         <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
-        <v>355.2527884562439</v>
+        <v>355.252788456244</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535859</v>
+        <v>380.352362453586</v>
       </c>
       <c r="O46" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q46" t="n">
         <v>113.8896548239395</v>
